--- a/20230208_coolingflow_ethanolconc.xlsx
+++ b/20230208_coolingflow_ethanolconc.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -121,24 +133,24 @@
   <dimension ref="A1:D39"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.60546875" customWidth="true"/>
-    <col min="3" max="3" width="11.60546875" customWidth="true"/>
-    <col min="4" max="4" width="11.60546875" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -146,13 +158,13 @@
         <v>-100</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0010109483788672692</v>
+        <v>0.0010109467996918652</v>
       </c>
       <c r="C2" s="0">
-        <v>17.525609759590395</v>
+        <v>17.5805668441688</v>
       </c>
       <c r="D2" s="0">
-        <v>8.0322182348966749</v>
+        <v>8.0132943231523086</v>
       </c>
     </row>
     <row r="3">
@@ -160,13 +172,13 @@
         <v>-95</v>
       </c>
       <c r="B3" s="0">
-        <v>0.00099638618991871458</v>
+        <v>0.0009963862010532933</v>
       </c>
       <c r="C3" s="0">
-        <v>17.55484261578323</v>
+        <v>17.584350455213553</v>
       </c>
       <c r="D3" s="0">
-        <v>8.0254815044974066</v>
+        <v>8.0161704430457235</v>
       </c>
     </row>
     <row r="4">
@@ -174,13 +186,13 @@
         <v>-90</v>
       </c>
       <c r="B4" s="0">
-        <v>0.00098222394579386852</v>
+        <v>0.00098222393252132487</v>
       </c>
       <c r="C4" s="0">
-        <v>17.526808857478443</v>
+        <v>17.553194973368534</v>
       </c>
       <c r="D4" s="0">
-        <v>8.0508080055458322</v>
+        <v>8.0378466738270049</v>
       </c>
     </row>
     <row r="5">
@@ -188,13 +200,13 @@
         <v>-85</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00096844427556929454</v>
+        <v>0.00096844427101613667</v>
       </c>
       <c r="C5" s="0">
-        <v>17.598325786397538</v>
+        <v>17.595073160567779</v>
       </c>
       <c r="D5" s="0">
-        <v>8.0351085199929457</v>
+        <v>8.0348554740620557</v>
       </c>
     </row>
     <row r="6">
@@ -202,13 +214,13 @@
         <v>-80</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0009550319713160782</v>
+        <v>0.0009550319506555383</v>
       </c>
       <c r="C6" s="0">
-        <v>17.626604591396472</v>
+        <v>17.553701316752893</v>
       </c>
       <c r="D6" s="0">
-        <v>8.0282249203131073</v>
+        <v>8.0566369638042374</v>
       </c>
     </row>
     <row r="7">
@@ -216,13 +228,13 @@
         <v>-75</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0009419740050173194</v>
+        <v>0.00094197268514686048</v>
       </c>
       <c r="C7" s="0">
-        <v>17.525258436056902</v>
+        <v>17.559387772530954</v>
       </c>
       <c r="D7" s="0">
-        <v>8.0756295625619146</v>
+        <v>8.0610422603169809</v>
       </c>
     </row>
     <row r="8">
@@ -230,13 +242,13 @@
         <v>-70</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00092925281531413314</v>
+        <v>0.00092925279013148356</v>
       </c>
       <c r="C8" s="0">
-        <v>17.615681084128937</v>
+        <v>17.575331816466701</v>
       </c>
       <c r="D8" s="0">
-        <v>8.0503744799309516</v>
+        <v>8.0701838276324338</v>
       </c>
     </row>
     <row r="9">
@@ -244,13 +256,13 @@
         <v>-65</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00091685923184008707</v>
+        <v>0.00091686042809846838</v>
       </c>
       <c r="C9" s="0">
-        <v>17.674203922191282</v>
+        <v>17.632411728314935</v>
       </c>
       <c r="D9" s="0">
-        <v>8.0393157782693265</v>
+        <v>8.055796720089802</v>
       </c>
     </row>
     <row r="10">
@@ -258,13 +270,13 @@
         <v>-60</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0009047793949608973</v>
+        <v>0.00090477939057507226</v>
       </c>
       <c r="C10" s="0">
-        <v>17.65892462280442</v>
+        <v>17.645213561356911</v>
       </c>
       <c r="D10" s="0">
-        <v>8.0515044955952817</v>
+        <v>8.055590156756125</v>
       </c>
     </row>
     <row r="11">
@@ -272,13 +284,13 @@
         <v>-55</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00089300127630477532</v>
+        <v>0.00089300129386112362</v>
       </c>
       <c r="C11" s="0">
-        <v>17.605080035939011</v>
+        <v>17.67682875177195</v>
       </c>
       <c r="D11" s="0">
-        <v>8.0793474536079657</v>
+        <v>8.0537302667390804</v>
       </c>
     </row>
     <row r="12">
@@ -286,13 +298,13 @@
         <v>-50</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0008815132584416574</v>
+        <v>0.00088151322788164064</v>
       </c>
       <c r="C12" s="0">
-        <v>17.704660367123608</v>
+        <v>17.581329418597136</v>
       </c>
       <c r="D12" s="0">
-        <v>8.05267201459219</v>
+        <v>8.0989366491597821</v>
       </c>
     </row>
     <row r="13">
@@ -300,13 +312,13 @@
         <v>-45</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00087030388797602301</v>
+        <v>0.00087030389290971601</v>
       </c>
       <c r="C13" s="0">
-        <v>17.673959596869565</v>
+        <v>17.710321743164343</v>
       </c>
       <c r="D13" s="0">
-        <v>8.0791517517985199</v>
+        <v>8.0603206440501936</v>
       </c>
     </row>
     <row r="14">
@@ -314,13 +326,13 @@
         <v>-40</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00085936287049452891</v>
+        <v>0.00085936186428163812</v>
       </c>
       <c r="C14" s="0">
-        <v>17.686482077830419</v>
+        <v>17.660260090397514</v>
       </c>
       <c r="D14" s="0">
-        <v>8.0756862435040375</v>
+        <v>8.0923605411482527</v>
       </c>
     </row>
     <row r="15">
@@ -328,13 +340,13 @@
         <v>-35</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00084867558982283848</v>
+        <v>0.00084867560012733228</v>
       </c>
       <c r="C15" s="0">
-        <v>17.687754417068277</v>
+        <v>17.721513468807302</v>
       </c>
       <c r="D15" s="0">
-        <v>8.0808870526355463</v>
+        <v>8.0727378824440734</v>
       </c>
     </row>
     <row r="16">
@@ -342,13 +354,13 @@
         <v>-30</v>
       </c>
       <c r="B16" s="0">
-        <v>0.00083823259495593072</v>
+        <v>0.00083823258655092063</v>
       </c>
       <c r="C16" s="0">
-        <v>17.727775950241949</v>
+        <v>17.682021148999524</v>
       </c>
       <c r="D16" s="0">
-        <v>8.0763047935093937</v>
+        <v>8.0929530951611923</v>
       </c>
     </row>
     <row r="17">
@@ -356,13 +368,13 @@
         <v>-25</v>
       </c>
       <c r="B17" s="0">
-        <v>0.00082801811898889353</v>
+        <v>0.00082801812597750764</v>
       </c>
       <c r="C17" s="0">
-        <v>17.694722633626384</v>
+        <v>17.756922962635258</v>
       </c>
       <c r="D17" s="0">
-        <v>8.1066821120696773</v>
+        <v>8.0765445778953904</v>
       </c>
     </row>
     <row r="18">
@@ -370,13 +382,13 @@
         <v>-20</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00081801181327207924</v>
+        <v>0.00081801269223156223</v>
       </c>
       <c r="C18" s="0">
-        <v>17.696761931150945</v>
+        <v>17.696780890335219</v>
       </c>
       <c r="D18" s="0">
-        <v>8.1090664930670755</v>
+        <v>8.109066513994037</v>
       </c>
     </row>
     <row r="19">
@@ -384,13 +396,13 @@
         <v>-15</v>
       </c>
       <c r="B19" s="0">
-        <v>0.00080817767632671196</v>
+        <v>0.00080817852404682828</v>
       </c>
       <c r="C19" s="0">
-        <v>17.642218115829621</v>
+        <v>17.64223680541005</v>
       </c>
       <c r="D19" s="0">
-        <v>8.1343848464587154</v>
+        <v>8.134384766982123</v>
       </c>
     </row>
     <row r="20">
@@ -401,10 +413,10 @@
         <v>0.00079842406530801209</v>
       </c>
       <c r="C20" s="0">
-        <v>17.753238623345851</v>
+        <v>17.753238624472601</v>
       </c>
       <c r="D20" s="0">
-        <v>8.1102287489005676</v>
+        <v>8.110228747546671</v>
       </c>
     </row>
     <row r="21">
@@ -412,13 +424,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00076427604831295068</v>
+        <v>0.00076427604831224021</v>
       </c>
       <c r="C21" s="0">
-        <v>17.823514574247326</v>
+        <v>17.823514576182617</v>
       </c>
       <c r="D21" s="0">
-        <v>8.0891025553025884</v>
+        <v>8.0891025535912036</v>
       </c>
     </row>
     <row r="22">
@@ -426,13 +438,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="0">
-        <v>0.00075552196438290295</v>
+        <v>0.00075552196438195547</v>
       </c>
       <c r="C22" s="0">
-        <v>17.825140080998324</v>
+        <v>17.825140082345399</v>
       </c>
       <c r="D22" s="0">
-        <v>8.0991065212264743</v>
+        <v>8.099106519770146</v>
       </c>
     </row>
     <row r="23">
@@ -440,13 +452,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="0">
-        <v>0.00074708980418947135</v>
+        <v>0.0007470891668685198</v>
       </c>
       <c r="C23" s="0">
-        <v>17.80491094833377</v>
+        <v>17.738867741327056</v>
       </c>
       <c r="D23" s="0">
-        <v>8.110020013776591</v>
+        <v>8.130709299434443</v>
       </c>
     </row>
     <row r="24">
@@ -454,13 +466,13 @@
         <v>25</v>
       </c>
       <c r="B24" s="0">
-        <v>0.00073888799818092824</v>
+        <v>0.00073888799847225076</v>
       </c>
       <c r="C24" s="0">
-        <v>17.801046669020707</v>
+        <v>17.86582021892724</v>
       </c>
       <c r="D24" s="0">
-        <v>8.1284070247563136</v>
+        <v>8.0958193118188433</v>
       </c>
     </row>
     <row r="25">
@@ -468,13 +480,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0007308855688911819</v>
+        <v>0.00073088498389755805</v>
       </c>
       <c r="C25" s="0">
-        <v>17.770696385668089</v>
+        <v>17.85688167044998</v>
       </c>
       <c r="D25" s="0">
-        <v>8.1357536001746098</v>
+        <v>8.1062116162523807</v>
       </c>
     </row>
     <row r="26">
@@ -482,13 +494,13 @@
         <v>35</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0007230635031342152</v>
+        <v>0.00072306292364276352</v>
       </c>
       <c r="C26" s="0">
-        <v>17.796009090415055</v>
+        <v>17.761479833248586</v>
       </c>
       <c r="D26" s="0">
-        <v>8.1348332616062748</v>
+        <v>8.1430018622625084</v>
       </c>
     </row>
     <row r="27">
@@ -496,13 +508,13 @@
         <v>40</v>
       </c>
       <c r="B27" s="0">
-        <v>0.00071541085330579786</v>
+        <v>0.0007154114001474809</v>
       </c>
       <c r="C27" s="0">
-        <v>17.859892520264452</v>
+        <v>17.79594866839966</v>
       </c>
       <c r="D27" s="0">
-        <v>8.1188244352248944</v>
+        <v>8.1406305462973023</v>
       </c>
     </row>
     <row r="28">
@@ -510,13 +522,13 @@
         <v>45</v>
       </c>
       <c r="B28" s="0">
-        <v>0.00070792060342578602</v>
+        <v>0.00070792061552853939</v>
       </c>
       <c r="C28" s="0">
-        <v>17.732678367158769</v>
+        <v>17.875197000535422</v>
       </c>
       <c r="D28" s="0">
-        <v>8.1700417187632297</v>
+        <v>8.1232692054017548</v>
       </c>
     </row>
     <row r="29">
@@ -524,13 +536,13 @@
         <v>50</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0007005856068407468</v>
+        <v>0.00070058560346282657</v>
       </c>
       <c r="C29" s="0">
-        <v>17.860627086639624</v>
+        <v>17.875146629017706</v>
       </c>
       <c r="D29" s="0">
-        <v>8.1356342757777611</v>
+        <v>8.1233510798820134</v>
       </c>
     </row>
     <row r="30">
@@ -538,13 +550,13 @@
         <v>55</v>
       </c>
       <c r="B30" s="0">
-        <v>0.00069340012388995444</v>
+        <v>0.00069340012142605058</v>
       </c>
       <c r="C30" s="0">
-        <v>17.813766149844639</v>
+        <v>17.82374567098492</v>
       </c>
       <c r="D30" s="0">
-        <v>8.1549848504478177</v>
+        <v>8.1454193737517926</v>
       </c>
     </row>
     <row r="31">
@@ -552,13 +564,13 @@
         <v>60</v>
       </c>
       <c r="B31" s="0">
-        <v>0.00068635907145910837</v>
+        <v>0.00068635906352116174</v>
       </c>
       <c r="C31" s="0">
-        <v>17.887070396174295</v>
+        <v>17.787247508967937</v>
       </c>
       <c r="D31" s="0">
-        <v>8.1309433374221953</v>
+        <v>8.163277667301486</v>
       </c>
     </row>
     <row r="32">
@@ -566,13 +578,13 @@
         <v>65</v>
       </c>
       <c r="B32" s="0">
-        <v>0.00067945774976283684</v>
+        <v>0.00067945775294344474</v>
       </c>
       <c r="C32" s="0">
-        <v>17.789472644100329</v>
+        <v>17.871983287053183</v>
       </c>
       <c r="D32" s="0">
-        <v>8.1727500086008718</v>
+        <v>8.1403592922997063</v>
       </c>
     </row>
     <row r="33">
@@ -580,13 +592,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="0">
-        <v>0.00067269181212584585</v>
+        <v>0.00067269181290663079</v>
       </c>
       <c r="C33" s="0">
-        <v>17.889065029268863</v>
+        <v>17.899933975662407</v>
       </c>
       <c r="D33" s="0">
-        <v>8.1413294841090647</v>
+        <v>8.137928902728504</v>
       </c>
     </row>
     <row r="34">
@@ -594,13 +606,13 @@
         <v>75</v>
       </c>
       <c r="B34" s="0">
-        <v>0.00066605714201197462</v>
+        <v>0.00066605713656249087</v>
       </c>
       <c r="C34" s="0">
-        <v>17.898068044027923</v>
+        <v>17.816987300833546</v>
       </c>
       <c r="D34" s="0">
-        <v>8.1438299079035232</v>
+        <v>8.1754092781949907</v>
       </c>
     </row>
     <row r="35">
@@ -608,13 +620,13 @@
         <v>80</v>
       </c>
       <c r="B35" s="0">
-        <v>0.00065954985803324813</v>
+        <v>0.00065954986109391096</v>
       </c>
       <c r="C35" s="0">
-        <v>17.923799741103551</v>
+        <v>17.925360059546392</v>
       </c>
       <c r="D35" s="0">
-        <v>8.1418275328525169</v>
+        <v>8.1416881484920509</v>
       </c>
     </row>
     <row r="36">
@@ -622,13 +634,13 @@
         <v>85</v>
       </c>
       <c r="B36" s="0">
-        <v>0.0006531662577601464</v>
+        <v>0.00065316625842797298</v>
       </c>
       <c r="C36" s="0">
-        <v>17.925692850374844</v>
+        <v>17.89385534763943</v>
       </c>
       <c r="D36" s="0">
-        <v>8.1419989447686589</v>
+        <v>8.1557937387468655</v>
       </c>
     </row>
     <row r="37">
@@ -636,13 +648,13 @@
         <v>90</v>
       </c>
       <c r="B37" s="0">
-        <v>0.00064690281963564189</v>
+        <v>0.00064690281963572082</v>
       </c>
       <c r="C37" s="0">
-        <v>17.932191317780337</v>
+        <v>17.932191316098852</v>
       </c>
       <c r="D37" s="0">
-        <v>8.1534769230361803</v>
+        <v>8.1534769225758055</v>
       </c>
     </row>
     <row r="38">
@@ -650,13 +662,13 @@
         <v>95</v>
       </c>
       <c r="B38" s="0">
-        <v>0.00064075615082513973</v>
+        <v>0.00064075615071257483</v>
       </c>
       <c r="C38" s="0">
-        <v>17.808140860155902</v>
+        <v>17.808140824196471</v>
       </c>
       <c r="D38" s="0">
-        <v>8.1989088872847447</v>
+        <v>8.1989088999663977</v>
       </c>
     </row>
     <row r="39">
@@ -664,13 +676,13 @@
         <v>100</v>
       </c>
       <c r="B39" s="0">
-        <v>0.00063472302050854518</v>
+        <v>0.00063472302042754335</v>
       </c>
       <c r="C39" s="0">
-        <v>17.897001722689879</v>
+        <v>17.897000012663796</v>
       </c>
       <c r="D39" s="0">
-        <v>8.1725368202059485</v>
+        <v>8.1725374942842564</v>
       </c>
     </row>
   </sheetData>

--- a/20230208_coolingflow_ethanolconc.xlsx
+++ b/20230208_coolingflow_ethanolconc.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
   <si>
     <t>Step</t>
   </si>
@@ -130,559 +154,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-100</v>
+        <v>-20</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0010109467996918652</v>
+        <v>0.0050380707268683263</v>
       </c>
       <c r="C2" s="0">
-        <v>17.5805668441688</v>
+        <v>17.578307065326385</v>
       </c>
       <c r="D2" s="0">
-        <v>8.0132943231523086</v>
+        <v>8.0426523027398957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-95</v>
+        <v>-19</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0009963862010532933</v>
+        <v>0.0050007301846791636</v>
       </c>
       <c r="C3" s="0">
-        <v>17.584350455213553</v>
+        <v>17.609658444593663</v>
       </c>
       <c r="D3" s="0">
-        <v>8.0161704430457235</v>
+        <v>8.0442241205976188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-90</v>
+        <v>-18</v>
       </c>
       <c r="B4" s="0">
-        <v>0.00098222393252132487</v>
+        <v>0.0048900686614857924</v>
       </c>
       <c r="C4" s="0">
-        <v>17.553194973368534</v>
+        <v>17.516655250807901</v>
       </c>
       <c r="D4" s="0">
-        <v>8.0378466738270049</v>
+        <v>8.0789778002365438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-85</v>
+        <v>-17</v>
       </c>
       <c r="B5" s="0">
-        <v>0.00096844427101613667</v>
+        <v>0.004857348236898631</v>
       </c>
       <c r="C5" s="0">
-        <v>17.595073160567779</v>
+        <v>17.637533481555806</v>
       </c>
       <c r="D5" s="0">
-        <v>8.0348554740620557</v>
+        <v>8.0469249157004015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-80</v>
+        <v>-16</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0009550319506555383</v>
+        <v>0.0047465325786943957</v>
       </c>
       <c r="C6" s="0">
-        <v>17.553701316752893</v>
+        <v>17.650734071964962</v>
       </c>
       <c r="D6" s="0">
-        <v>8.0566369638042374</v>
+        <v>8.0662610690036445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-75</v>
+        <v>-15</v>
       </c>
       <c r="B7" s="0">
-        <v>0.00094197268514686048</v>
+        <v>0.0047184833074709331</v>
       </c>
       <c r="C7" s="0">
-        <v>17.559387772530954</v>
+        <v>17.621656106818818</v>
       </c>
       <c r="D7" s="0">
-        <v>8.0610422603169809</v>
+        <v>8.0806572367078502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-70</v>
+        <v>-14</v>
       </c>
       <c r="B8" s="0">
-        <v>0.00092925279013148356</v>
+        <v>0.0046947857145381378</v>
       </c>
       <c r="C8" s="0">
-        <v>17.575331816466701</v>
+        <v>17.607408264470337</v>
       </c>
       <c r="D8" s="0">
-        <v>8.0701838276324338</v>
+        <v>8.0930017385221618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-65</v>
+        <v>-13</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00091686042809846838</v>
+        <v>0.0045825843164587574</v>
       </c>
       <c r="C9" s="0">
-        <v>17.632411728314935</v>
+        <v>17.625749228579082</v>
       </c>
       <c r="D9" s="0">
-        <v>8.055796720089802</v>
+        <v>8.0859526392075622</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-60</v>
+        <v>-12</v>
       </c>
       <c r="B10" s="0">
-        <v>0.00090477939057507226</v>
+        <v>0.0045644829581880471</v>
       </c>
       <c r="C10" s="0">
-        <v>17.645213561356911</v>
+        <v>17.665923371752513</v>
       </c>
       <c r="D10" s="0">
-        <v>8.055590156756125</v>
+        <v>8.07040729569826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-55</v>
+        <v>-11</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00089300129386112362</v>
+        <v>0.0044474545268574743</v>
       </c>
       <c r="C11" s="0">
-        <v>17.67682875177195</v>
+        <v>17.650794962323914</v>
       </c>
       <c r="D11" s="0">
-        <v>8.0537302667390804</v>
+        <v>8.101982209323694</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-50</v>
+        <v>-10</v>
       </c>
       <c r="B12" s="0">
-        <v>0.00088151322788164064</v>
+        <v>0.0044354890080143148</v>
       </c>
       <c r="C12" s="0">
-        <v>17.581329418597136</v>
+        <v>17.605767479002793</v>
       </c>
       <c r="D12" s="0">
-        <v>8.0989366491597821</v>
+        <v>8.1203038036507564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-45</v>
+        <v>-9</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00087030389290971601</v>
+        <v>0.0044317745600497777</v>
       </c>
       <c r="C13" s="0">
-        <v>17.710321743164343</v>
+        <v>17.69118439975847</v>
       </c>
       <c r="D13" s="0">
-        <v>8.0603206440501936</v>
+        <v>8.1133972782649835</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-40</v>
+        <v>-8</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00085936186428163812</v>
+        <v>0.0043041694533991759</v>
       </c>
       <c r="C14" s="0">
-        <v>17.660260090397514</v>
+        <v>17.717952201929165</v>
       </c>
       <c r="D14" s="0">
-        <v>8.0923605411482527</v>
+        <v>8.1018574599293629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00084867560012733228</v>
+        <v>0.0043106256825333434</v>
       </c>
       <c r="C15" s="0">
-        <v>17.721513468807302</v>
+        <v>17.691941007346941</v>
       </c>
       <c r="D15" s="0">
-        <v>8.0727378824440734</v>
+        <v>8.1081484156507031</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-30</v>
+        <v>-6</v>
       </c>
       <c r="B16" s="0">
-        <v>0.00083823258655092063</v>
+        <v>0.0041625419845132683</v>
       </c>
       <c r="C16" s="0">
-        <v>17.682021148999524</v>
+        <v>17.724106114665119</v>
       </c>
       <c r="D16" s="0">
-        <v>8.0929530951611923</v>
+        <v>8.1090327249888787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="B17" s="0">
-        <v>0.00082801812597750764</v>
+        <v>0.0041824729493214361</v>
       </c>
       <c r="C17" s="0">
-        <v>17.756922962635258</v>
+        <v>17.677043983042552</v>
       </c>
       <c r="D17" s="0">
-        <v>8.0765445778953904</v>
+        <v>8.1476702911005532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00081801269223156223</v>
+        <v>0.0042330777936889774</v>
       </c>
       <c r="C18" s="0">
-        <v>17.696780890335219</v>
+        <v>17.659868440841024</v>
       </c>
       <c r="D18" s="0">
-        <v>8.109066513994037</v>
+        <v>8.1489198630161468</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="B19" s="0">
-        <v>0.00080817852404682828</v>
+        <v>0.0040233970065794251</v>
       </c>
       <c r="C19" s="0">
-        <v>17.64223680541005</v>
+        <v>17.714261293734523</v>
       </c>
       <c r="D19" s="0">
-        <v>8.134384766982123</v>
+        <v>8.1470511248772368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="B20" s="0">
-        <v>0.00079842406530801209</v>
+        <v>0.0041339834395444086</v>
       </c>
       <c r="C20" s="0">
-        <v>17.753238624472601</v>
+        <v>17.660113181217241</v>
       </c>
       <c r="D20" s="0">
-        <v>8.110228747546671</v>
+        <v>8.1858352307242512</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B21" s="0">
-        <v>0.00076427604831224021</v>
+        <v>0.0036208606256025178</v>
       </c>
       <c r="C21" s="0">
-        <v>17.823514576182617</v>
+        <v>17.643264018514628</v>
       </c>
       <c r="D21" s="0">
-        <v>8.0891025535912036</v>
+        <v>8.2226655805292808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>0.00075552196438195547</v>
+        <v>0.0035800538338719434</v>
       </c>
       <c r="C22" s="0">
-        <v>17.825140082345399</v>
+        <v>17.875940234875543</v>
       </c>
       <c r="D22" s="0">
-        <v>8.099106519770146</v>
+        <v>8.0476545988921657</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>0.0007470891668685198</v>
+        <v>0.0039701156770099999</v>
       </c>
       <c r="C23" s="0">
-        <v>17.738867741327056</v>
+        <v>17.757496695358441</v>
       </c>
       <c r="D23" s="0">
-        <v>8.130709299434443</v>
+        <v>8.1386842172099705</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0">
-        <v>0.00073888799847225076</v>
+        <v>0.0037845563416449104</v>
       </c>
       <c r="C24" s="0">
-        <v>17.86582021892724</v>
+        <v>17.754991399978792</v>
       </c>
       <c r="D24" s="0">
-        <v>8.0958193118188433</v>
+        <v>8.1516291743890861</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B25" s="0">
-        <v>0.00073088498389755805</v>
+        <v>0.0038825183186492751</v>
       </c>
       <c r="C25" s="0">
-        <v>17.85688167044998</v>
+        <v>17.850367142055745</v>
       </c>
       <c r="D25" s="0">
-        <v>8.1062116162523807</v>
+        <v>8.1166692505783544</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0">
-        <v>0.00072306292364276352</v>
+        <v>0.0037602084503902235</v>
       </c>
       <c r="C26" s="0">
-        <v>17.761479833248586</v>
+        <v>17.779007593522977</v>
       </c>
       <c r="D26" s="0">
-        <v>8.1430018622625084</v>
+        <v>8.1417188362269712</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0007154114001474809</v>
+        <v>0.0036685704782624859</v>
       </c>
       <c r="C27" s="0">
-        <v>17.79594866839966</v>
+        <v>17.801388418533918</v>
       </c>
       <c r="D27" s="0">
-        <v>8.1406305462973023</v>
+        <v>8.1527313177640508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0">
-        <v>0.00070792061552853939</v>
+        <v>0.0037059513218754398</v>
       </c>
       <c r="C28" s="0">
-        <v>17.875197000535422</v>
+        <v>17.820875883122085</v>
       </c>
       <c r="D28" s="0">
-        <v>8.1232692054017548</v>
+        <v>8.1467822180143799</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B29" s="0">
-        <v>0.00070058560346282657</v>
+        <v>0.0036277067874568303</v>
       </c>
       <c r="C29" s="0">
-        <v>17.875146629017706</v>
+        <v>17.867165121480525</v>
       </c>
       <c r="D29" s="0">
-        <v>8.1233510798820134</v>
+        <v>8.1315434493363341</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B30" s="0">
-        <v>0.00069340012142605058</v>
+        <v>0.0036437418570827163</v>
       </c>
       <c r="C30" s="0">
-        <v>17.82374567098492</v>
+        <v>17.819796522709396</v>
       </c>
       <c r="D30" s="0">
-        <v>8.1454193737517926</v>
+        <v>8.1699178331705298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0">
-        <v>0.00068635906352116174</v>
+        <v>0.0035750786252890521</v>
       </c>
       <c r="C31" s="0">
-        <v>17.787247508967937</v>
+        <v>17.89042367941812</v>
       </c>
       <c r="D31" s="0">
-        <v>8.163277667301486</v>
+        <v>8.1444514707839062</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B32" s="0">
-        <v>0.00067945775294344474</v>
+        <v>0.0035141439875930173</v>
       </c>
       <c r="C32" s="0">
-        <v>17.871983287053183</v>
+        <v>17.890488193938666</v>
       </c>
       <c r="D32" s="0">
-        <v>8.1403592922997063</v>
+        <v>8.1502070942753448</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B33" s="0">
-        <v>0.00067269181290663079</v>
+        <v>0.0035179211194874918</v>
       </c>
       <c r="C33" s="0">
-        <v>17.899933975662407</v>
+        <v>17.901737328373883</v>
       </c>
       <c r="D33" s="0">
-        <v>8.137928902728504</v>
+        <v>8.1523005192163964</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B34" s="0">
-        <v>0.00066605713656249087</v>
+        <v>0.0034620799997541621</v>
       </c>
       <c r="C34" s="0">
-        <v>17.816987300833546</v>
+        <v>17.867598653119956</v>
       </c>
       <c r="D34" s="0">
-        <v>8.1754092781949907</v>
+        <v>8.1720027440977674</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B35" s="0">
-        <v>0.00065954986109391096</v>
+        <v>0.0034592399513389944</v>
       </c>
       <c r="C35" s="0">
-        <v>17.925360059546392</v>
+        <v>17.860975213528832</v>
       </c>
       <c r="D35" s="0">
-        <v>8.1416881484920509</v>
+        <v>8.1749080079310943</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0">
-        <v>0.00065316625842797298</v>
+        <v>0.0034076468039032195</v>
       </c>
       <c r="C36" s="0">
-        <v>17.89385534763943</v>
+        <v>17.896046114276317</v>
       </c>
       <c r="D36" s="0">
-        <v>8.1557937387468655</v>
+        <v>8.1751660467771217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B37" s="0">
-        <v>0.00064690281963572082</v>
+        <v>0.0033596609258697008</v>
       </c>
       <c r="C37" s="0">
-        <v>17.932191316098852</v>
+        <v>17.928715280126937</v>
       </c>
       <c r="D37" s="0">
-        <v>8.1534769225758055</v>
+        <v>8.1796756061501696</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B38" s="0">
-        <v>0.00064075615071257483</v>
+        <v>0.0033524846791237071</v>
       </c>
       <c r="C38" s="0">
-        <v>17.808140824196471</v>
+        <v>17.856221024088427</v>
       </c>
       <c r="D38" s="0">
-        <v>8.1989088999663977</v>
+        <v>8.2081374093417594</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="B39" s="0">
-        <v>0.00063472302042754335</v>
+        <v>0.0033074308971118662</v>
       </c>
       <c r="C39" s="0">
-        <v>17.897000012663796</v>
+        <v>17.940229508584878</v>
       </c>
       <c r="D39" s="0">
-        <v>8.1725374942842564</v>
+        <v>8.1719629304293449</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>19</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.0032974651968059655</v>
+      </c>
+      <c r="C40" s="0">
+        <v>17.907680142873176</v>
+      </c>
+      <c r="D40" s="0">
+        <v>8.1991772618091545</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>20</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.0032550200457542645</v>
+      </c>
+      <c r="C41" s="0">
+        <v>17.947251800880565</v>
+      </c>
+      <c r="D41" s="0">
+        <v>8.1812777962534255</v>
       </c>
     </row>
   </sheetData>
